--- a/bdd/shemaExplicatifBDD.xlsx
+++ b/bdd/shemaExplicatifBDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Hada_site\bdd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Hada_site-master\bdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -702,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -843,6 +843,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1172,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,12 +1322,12 @@
       <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="26"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1369,10 +1372,10 @@
       <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1418,10 +1421,10 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="51"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
@@ -1443,8 +1446,8 @@
         <v>10</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
@@ -1715,10 +1718,10 @@
       <c r="H22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="53"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="2"/>
       <c r="L22" s="34"/>
       <c r="M22" s="2"/>
@@ -1812,7 +1815,7 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="51" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="9"/>
@@ -1864,7 +1867,7 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="51" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="9"/>
@@ -1897,7 +1900,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" s="48" t="s">
         <v>37</v>
       </c>
@@ -1915,8 +1918,8 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="41" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="2"/>
@@ -1931,32 +1934,32 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" s="48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="41" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="50" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="50" t="s">
         <v>46</v>
       </c>
